--- a/项目文档/H51804node项目进度监控表.xlsx
+++ b/项目文档/H51804node项目进度监控表.xlsx
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>小组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,14 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,14 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第三组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请假记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +101,62 @@
   </si>
   <si>
     <t>H51804nodejs项目进度表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李翰宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二组
+组名：风启组
+项目：Tasty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈家玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康若曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘嘉欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屈向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高文静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三组
+组名：skyline
+项目：视野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四组
+组名:Lord
+项目：唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一组
+组名：文人
+项目：骚客</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,14 +218,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -205,6 +237,15 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -255,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -444,13 +485,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,12 +595,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -535,9 +619,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -559,14 +640,20 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,66 +954,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13" style="2"/>
-    <col min="2" max="2" width="13" style="1"/>
+    <col min="1" max="1" width="17" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="1" customWidth="1"/>
     <col min="8" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A1" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="A1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22"/>
+      <c r="A3" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -934,75 +1023,87 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" ht="27" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" s="35" customFormat="1" ht="4.5" customHeight="1">
+    <row r="5" spans="1:7" s="16" customFormat="1" ht="27" customHeight="1">
+      <c r="A5" s="39"/>
+      <c r="B5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" s="36" customFormat="1" ht="4.5" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
+      <c r="A7" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
-      <c r="A9" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="11"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" s="35" customFormat="1" ht="3.75" customHeight="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="9"/>
@@ -1010,30 +1111,34 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" s="34" customFormat="1" ht="3.75" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
-      <c r="A14" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="8"/>
+      <c r="A14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>21</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="9"/>
@@ -1041,8 +1146,10 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="9"/>
@@ -1050,91 +1157,54 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="17" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="20" spans="3:3" ht="27" customHeight="1">
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="27" customHeight="1">
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="27" customHeight="1">
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="27" customHeight="1">
+      <c r="C23" s="41"/>
+    </row>
+    <row r="38" spans="1:1" ht="27" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="37" spans="1:3" ht="27" customHeight="1">
-      <c r="C37" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="27" customHeight="1">
-      <c r="C38" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="27" customHeight="1">
-      <c r="C39" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="27" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="27" customHeight="1">
-      <c r="A43" s="23"/>
-    </row>
-    <row r="44" spans="1:3" ht="27" customHeight="1">
-      <c r="A44" s="23"/>
+    </row>
+    <row r="39" spans="1:1" ht="27" customHeight="1">
+      <c r="A39" s="22"/>
+    </row>
+    <row r="40" spans="1:1" ht="27" customHeight="1">
+      <c r="A40" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A6:XFD6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
